--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF.xlsx
@@ -9652,17 +9652,17 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -9672,88 +9672,88 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>191.04</v>
+        <v>190.8</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>98.79000000000001</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="K101" s="4" t="n">
-        <v>79.34</v>
+        <v>100</v>
       </c>
       <c r="L101" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="N101" s="5" t="n">
-        <v>23.5</v>
+        <v>5.9</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P101" s="4" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="Q101" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R101" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T101" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T101" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W101" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -9763,71 +9763,71 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>190.8</v>
+        <v>191.04</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>98.56999999999999</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>100</v>
+        <v>79.34</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>5.9</v>
+        <v>23.5</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>20</v>
+      </c>
+      <c r="T102" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO LEVE + OPTIMIZACIÓN: Aplicar descuento 20% para renovar inventario. Reducir compras 15% próxima temporada.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -15112,17 +15112,17 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -15132,40 +15132,40 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I161" s="4" t="n">
-        <v>125.82</v>
+        <v>125.81</v>
       </c>
       <c r="J161" s="4" t="n">
         <v>64.65000000000001</v>
       </c>
       <c r="K161" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L161" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M161" s="5" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="N161" s="5" t="n">
-        <v>4.4</v>
+        <v>22.7</v>
       </c>
       <c r="O161" s="4" t="n">
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="P161" s="4" t="n">
         <v>61</v>
@@ -15181,12 +15181,12 @@
       </c>
       <c r="T161" s="7" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U161" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -93 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V161" s="4" t="inlineStr">
@@ -15196,24 +15196,24 @@
       </c>
       <c r="W161" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -15223,40 +15223,40 @@
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F162" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G162" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I162" s="4" t="n">
-        <v>125.81</v>
+        <v>125.82</v>
       </c>
       <c r="J162" s="4" t="n">
         <v>64.65000000000001</v>
       </c>
       <c r="K162" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L162" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M162" s="5" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="N162" s="5" t="n">
-        <v>22.7</v>
+        <v>4.4</v>
       </c>
       <c r="O162" s="4" t="n">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="P162" s="4" t="n">
         <v>61</v>
@@ -15272,12 +15272,12 @@
       </c>
       <c r="T162" s="7" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U162" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -93 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V162" s="4" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="W162" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -16367,17 +16367,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7803100001</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -16387,88 +16387,88 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>118.37</v>
+        <v>113.94</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>62.61</v>
+        <v>58.58</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>106.38</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>12.2</v>
+        <v>1.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>213.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T6" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7803100001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>CORIANDRUM SATIVUM (CILANTRO)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -16478,71 +16478,71 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>113.94</v>
+        <v>118.37</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>58.58</v>
+        <v>62.61</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>75</v>
+        <v>106.38</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>1.5</v>
+        <v>12.2</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>213.33</v>
+        <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T7" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17277,17 +17277,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7702010000</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM DOMESTICUM</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -17297,49 +17297,49 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>111.86</v>
+        <v>97.72</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>58.57</v>
+        <v>45.72</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>77.78</v>
+        <v>200</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>0</v>
@@ -17351,34 +17351,34 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7702010000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>PELARGONIUM DOMESTICUM</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -17388,49 +17388,49 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>97.72</v>
+        <v>111.86</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>45.72</v>
+        <v>58.57</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>200</v>
+        <v>77.78</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>0</v>
@@ -17442,17 +17442,17 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER ESTRATEGIA ACTUAL: Gestión excelente. Stock óptimo y fresco. Mantener nivel de compras actual. Producto clave del catálogo.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -26013,17 +26013,17 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -26033,88 +26033,88 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I112" s="4" t="n">
-        <v>59.85</v>
+        <v>58.47</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>33.11</v>
+        <v>31.85</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>93.75</v>
+        <v>37.5</v>
       </c>
       <c r="L112" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" s="5" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N112" s="5" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q112" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="R112" s="4" t="n">
-        <v>340</v>
+        <v>73.33</v>
       </c>
       <c r="S112" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T112" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>10</v>
+      </c>
+      <c r="T112" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W112" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>MENTHA  PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -26124,71 +26124,71 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>58.47</v>
+        <v>59.85</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>31.85</v>
+        <v>33.11</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="L113" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" s="5" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="N113" s="5" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>73.33</v>
+        <v>340</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T113" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>30</v>
+      </c>
+      <c r="T113" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -27924,17 +27924,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7201040000</t>
+          <t>7905040021</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>SUTERA HYBRIDA</t>
+          <t>PIMIENTO PICANTE CHILE POBLANO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -27944,12 +27944,12 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
@@ -27959,16 +27959,16 @@
         <v>14</v>
       </c>
       <c r="I133" s="4" t="n">
-        <v>41.3</v>
+        <v>41.86</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>19.49</v>
+        <v>19.99</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>93.33</v>
+        <v>46.67</v>
       </c>
       <c r="L133" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133" s="5" t="n">
         <v>1.1</v>
@@ -27977,16 +27977,16 @@
         <v>3.4</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>306.67</v>
+        <v>333.33</v>
       </c>
       <c r="S133" s="5" t="n">
         <v>30</v>
@@ -27998,17 +27998,17 @@
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W133" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28106,17 +28106,17 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>7905040021</t>
+          <t>7201040000</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CHILE POBLANO</t>
+          <t>SUTERA HYBRIDA</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
@@ -28141,16 +28141,16 @@
         <v>14</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>41.86</v>
+        <v>41.3</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>19.99</v>
+        <v>19.49</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>46.67</v>
+        <v>93.33</v>
       </c>
       <c r="L135" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="5" t="n">
         <v>1.1</v>
@@ -28159,16 +28159,16 @@
         <v>3.4</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>333.33</v>
+        <v>306.67</v>
       </c>
       <c r="S135" s="5" t="n">
         <v>30</v>
@@ -28180,17 +28180,17 @@
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -34730,17 +34730,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7905130024</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -34750,88 +34750,88 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>27.9</v>
+        <v>26.91</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>15.64</v>
+        <v>14.74</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>0</v>
+        <v>413.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T66" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7905130024</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TATSOI BRASSICA RAPA VAR NARINOSA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -34841,71 +34841,71 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>26.91</v>
+        <v>27.9</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>14.74</v>
+        <v>15.64</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="O67" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P67" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="P67" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="Q67" s="4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>413.33</v>
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T67" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T67" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37369,12 +37369,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7203500001</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>VERBENA HYBRIDA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -37410,7 +37410,7 @@
         <v>8.99</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
@@ -37422,50 +37422,50 @@
         <v>0.7</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>20</v>
+      </c>
+      <c r="T95" s="9" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7203500001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES (COLEO)</t>
+          <t>VERBENA HYBRIDA</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -37501,7 +37501,7 @@
         <v>8.99</v>
       </c>
       <c r="K96" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>0</v>
@@ -37513,38 +37513,38 @@
         <v>0.7</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T96" s="9" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T96" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -39735,17 +39735,17 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>7803250005</t>
+          <t>7905130010</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>STEVIA REBAUDIANA</t>
+          <t>LOMBARDA</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -39755,88 +39755,88 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G121" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H121" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I121" s="4" t="n">
-        <v>15.96</v>
+        <v>10.45</v>
       </c>
       <c r="J121" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="K121" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L121" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M121" s="5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121" s="5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O121" s="4" t="n">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="P121" s="4" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="Q121" s="4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R121" s="4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S121" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T121" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T121" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U121" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V121" s="4" t="inlineStr">
         <is>
-          <t>Compra 10/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W121" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>7905130010</t>
+          <t>7803250005</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>LOMBARDA</t>
+          <t>STEVIA REBAUDIANA</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -39846,71 +39846,71 @@
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G122" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H122" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>10.45</v>
+        <v>15.96</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>4.7</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L122" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M122" s="5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N122" s="5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="Q122" s="4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T122" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T122" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U122" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V122" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 10/04/2025</t>
         </is>
       </c>
       <c r="W122" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -40645,17 +40645,17 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>7205030002</t>
+          <t>7905130005</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>COLIFLOR</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -40665,25 +40665,25 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H131" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>4.31</v>
+        <v>5.21</v>
       </c>
       <c r="K131" s="4" t="n">
         <v>0</v>
@@ -40692,16 +40692,16 @@
         <v>0</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q131" s="4" t="n">
         <v>0</v>
@@ -40719,7 +40719,7 @@
       </c>
       <c r="U131" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V131" s="4" t="inlineStr">
@@ -40736,17 +40736,17 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>7905130006</t>
+          <t>7205030002</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR ROMANESCO</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -40756,25 +40756,25 @@
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G132" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H132" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J132" s="4" t="n">
-        <v>5.21</v>
+        <v>4.31</v>
       </c>
       <c r="K132" s="4" t="n">
         <v>0</v>
@@ -40783,16 +40783,16 @@
         <v>0</v>
       </c>
       <c r="M132" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N132" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q132" s="4" t="n">
         <v>0</v>
@@ -40810,7 +40810,7 @@
       </c>
       <c r="U132" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V132" s="4" t="inlineStr">
@@ -40827,12 +40827,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>7905130005</t>
+          <t>7905130006</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>COLIFLOR</t>
+          <t>COLIFLOR ROMANESCO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -41282,45 +41282,37 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>7205010001</t>
+          <t>7805020003</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>BRASSICA OLERACEA VAR "CRISPA"</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>M13A20</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LAVANDULA STOECHAS</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr"/>
+      <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="K138" s="4" t="n">
         <v>0</v>
@@ -41329,16 +41321,16 @@
         <v>0</v>
       </c>
       <c r="M138" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N138" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N138" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O138" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q138" s="4" t="n">
         <v>0</v>
@@ -41356,7 +41348,7 @@
       </c>
       <c r="U138" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V138" s="4" t="inlineStr">
@@ -41373,37 +41365,45 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>7805020003</t>
+          <t>7205010001</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA STOECHAS</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr"/>
-      <c r="D139" s="3" t="inlineStr"/>
+          <t>BRASSICA OLERACEA VAR "CRISPA"</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>M13A20</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G139" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H139" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>0</v>
@@ -41412,16 +41412,16 @@
         <v>0</v>
       </c>
       <c r="M139" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N139" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q139" s="4" t="n">
         <v>0</v>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="U139" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V139" s="4" t="inlineStr">
@@ -42002,17 +42002,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>7401250011</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS HYBRIDA</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1I6LA40</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -42022,12 +42022,12 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
@@ -42037,10 +42037,10 @@
         <v>1</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>4.46</v>
+        <v>3.55</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>0</v>
@@ -42058,7 +42058,7 @@
         <v>-1</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -42093,17 +42093,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7401250011</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>DIANTHUS HYBRIDA</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>1I6LA40</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -42113,12 +42113,12 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
@@ -42128,10 +42128,10 @@
         <v>1</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>3.55</v>
+        <v>4.46</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>0</v>
@@ -42149,7 +42149,7 @@
         <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -44341,17 +44341,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7401740013</t>
+          <t>7205090002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>AUBRIETA X CULTORUM</t>
+          <t>VIOLA X WITROCKIANA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>T23A15</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44361,12 +44361,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44385,7 +44385,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44394,7 +44394,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -44415,7 +44415,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -44432,17 +44432,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7803030001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>OCIMUM BASILICUM "MINIMUM"</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>C16A15</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44523,17 +44523,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7401050001</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LOBULARIA MARITIMA</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44543,12 +44543,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44567,7 +44567,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44576,19 +44576,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -44597,12 +44597,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44614,17 +44614,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7401290001</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ERYSIMUM HYBRIDUM</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44634,12 +44634,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44673,13 +44673,13 @@
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>73.33</v>
+        <v>26.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -44688,12 +44688,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44705,12 +44705,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7206040001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -44749,7 +44749,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44758,7 +44758,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -44779,7 +44779,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -44796,17 +44796,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7504010002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>C17A35</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -44816,12 +44816,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -44840,7 +44840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -44849,19 +44849,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>613.33</v>
+        <v>26.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="inlineStr">
         <is>
@@ -44870,12 +44870,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -44887,17 +44887,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7203230001</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>GERBERA HYBRIDS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2LA35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -44907,12 +44907,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -44940,19 +44940,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>73.33</v>
+        <v>613.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -44961,12 +44961,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -44978,17 +44978,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7805020002</t>
+          <t>7401050001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
+          <t>LOBULARIA MARITIMA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -44998,12 +44998,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45022,7 +45022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45031,19 +45031,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>586.67</v>
+        <v>26.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -45052,12 +45052,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45069,17 +45069,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7202520006</t>
+          <t>7503010005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TROPAEOLUM MAJUS</t>
+          <t>DENDRANTHEMA X GRANDIFLORUM</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45089,12 +45089,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45113,7 +45113,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -45122,16 +45122,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>6.67</v>
+        <v>26.67</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>0</v>
@@ -45148,7 +45148,7 @@
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45160,17 +45160,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7206040001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>MATTHIOLA INCANA DOBLE (ALHELÍ)</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45204,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45213,7 +45213,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -45234,7 +45234,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -45251,17 +45251,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7803030001</t>
+          <t>7202520006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>OCIMUM BASILICUM "MINIMUM"</t>
+          <t>TROPAEOLUM MAJUS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C16A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45271,12 +45271,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45295,7 +45295,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45304,16 +45304,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>26.67</v>
+        <v>6.67</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>0</v>
@@ -45330,7 +45330,7 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 30/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45342,17 +45342,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7804160002</t>
+          <t>7401290001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
+          <t>ERYSIMUM HYBRIDUM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45362,12 +45362,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45386,7 +45386,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45395,19 +45395,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -45416,12 +45416,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45433,17 +45433,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7205090002</t>
+          <t>7203230001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>VIOLA X WITROCKIANA</t>
+          <t>GERBERA HYBRIDS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>T23A15</t>
+          <t>2LA35</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45477,7 +45477,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45486,19 +45486,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>613.33</v>
+        <v>73.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -45507,12 +45507,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45524,17 +45524,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7401740046</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
+          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45544,12 +45544,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45583,13 +45583,13 @@
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>166.67</v>
+        <v>73.33</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -45598,12 +45598,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45615,17 +45615,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7805110002</t>
+          <t>7203500003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SALVIA LEUCANTHA</t>
+          <t>VERBENA BONARIENSIS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45635,12 +45635,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45668,16 +45668,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>613.33</v>
+        <v>253.33</v>
       </c>
       <c r="S16" s="5" t="n">
         <v>30</v>
@@ -45689,12 +45689,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45706,17 +45706,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7805110002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>SALVIA LEUCANTHA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45726,12 +45726,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45780,7 +45780,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -45797,17 +45797,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA RED ROSE MIAM</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -45817,12 +45817,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -45841,7 +45841,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -45850,19 +45850,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>73.33</v>
+        <v>26.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -45871,12 +45871,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -45888,17 +45888,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7804160002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>MENTHA PIPERITA CITRATA "CHOCOLATE"</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -45908,12 +45908,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -45941,7 +45941,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -45962,7 +45962,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.56€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -45979,17 +45979,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7804250002</t>
+          <t>7401740046</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
+          <t>GLYCYRRHIZA GLABRA (REGALIZ)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -45999,12 +45999,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46032,16 +46032,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>186.67</v>
+        <v>166.67</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -46058,7 +46058,7 @@
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46070,17 +46070,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7504010002</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PERICALLIS HYBRIDA "SENETTI BABY"</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C17A35</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46090,12 +46090,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46114,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46123,19 +46123,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -46144,12 +46144,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46161,17 +46161,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7203500003</t>
+          <t>7805020002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>VERBENA BONARIENSIS</t>
+          <t>LAVANDULA DENTATA VAR. CANDICANS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46181,12 +46181,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46205,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46214,16 +46214,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>253.33</v>
+        <v>586.67</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>30</v>
@@ -46240,7 +46240,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46252,12 +46252,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7503010005</t>
+          <t>7401740013</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DENDRANTHEMA X GRANDIFLORUM</t>
+          <t>AUBRIETA X CULTORUM</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -46272,12 +46272,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46296,7 +46296,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46305,19 +46305,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>26.67</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -46326,12 +46326,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46343,17 +46343,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7804250002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>HELICHRYSUM THIANSCHANICUM- CURRY</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46396,19 +46396,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>26.67</v>
+        <v>186.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -46417,12 +46417,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
